--- a/documentation/3.Потверждение_максимума_Солярик.xlsx
+++ b/documentation/3.Потверждение_максимума_Солярик.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="4" r:id="rId3"/>
   </pivotCaches>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1095,10 +1095,10 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="36" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="36" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1161,7 +1161,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Александра" refreshedDate="44454.729142708333" createdVersion="6" refreshedVersion="3" minRefreshableVersion="3" recordCount="29">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Александра" refreshedDate="44458.989866087963" createdVersion="6" refreshedVersion="3" minRefreshableVersion="3" recordCount="29">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H30" sheet="Автоматизированный расчет"/>
   </cacheSource>
@@ -1507,7 +1507,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -1848,7 +1848,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1859,7 +1859,7 @@
   <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3140,7 +3140,7 @@
         <f t="shared" ref="D34:D42" si="22">1-B34/C34</f>
         <v>2.6355797079119836E-2</v>
       </c>
-      <c r="F34" s="47">
+      <c r="F34" s="46">
         <f>ROUND(C34,0)</f>
         <v>534</v>
       </c>
@@ -3170,7 +3170,7 @@
         <f t="shared" si="22"/>
         <v>4.2148866233450821E-2</v>
       </c>
-      <c r="F35" s="47">
+      <c r="F35" s="46">
         <f t="shared" ref="F35:F44" si="25">ROUND(C35,0)</f>
         <v>441</v>
       </c>
@@ -3200,7 +3200,7 @@
         <f t="shared" si="22"/>
         <v>-4.4217391304347764E-2</v>
       </c>
-      <c r="F36" s="47">
+      <c r="F36" s="46">
         <f t="shared" si="25"/>
         <v>270</v>
       </c>
@@ -3230,7 +3230,7 @@
         <f t="shared" si="22"/>
         <v>2.1739130434783593E-4</v>
       </c>
-      <c r="F37" s="47">
+      <c r="F37" s="46">
         <f t="shared" si="25"/>
         <v>270</v>
       </c>
@@ -3260,7 +3260,7 @@
         <f t="shared" si="22"/>
         <v>-2.0833333333333259E-2</v>
       </c>
-      <c r="F38" s="47">
+      <c r="F38" s="46">
         <f t="shared" si="25"/>
         <v>171</v>
       </c>
@@ -3290,7 +3290,7 @@
         <f t="shared" si="22"/>
         <v>3.1135806177103653E-2</v>
       </c>
-      <c r="F39" s="47">
+      <c r="F39" s="46">
         <f t="shared" si="25"/>
         <v>289</v>
       </c>
@@ -3320,7 +3320,7 @@
         <f t="shared" si="22"/>
         <v>-1.388888888888884E-2</v>
       </c>
-      <c r="F40" s="47">
+      <c r="F40" s="46">
         <f t="shared" si="25"/>
         <v>72</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>-2.5556356645037193E-2</v>
       </c>
       <c r="E41" s="1"/>
-      <c r="F41" s="47">
+      <c r="F41" s="46">
         <f t="shared" si="25"/>
         <v>318</v>
       </c>
@@ -3381,7 +3381,7 @@
         <f t="shared" si="22"/>
         <v>-3.7361111111110956E-2</v>
       </c>
-      <c r="F42" s="47">
+      <c r="F42" s="46">
         <f t="shared" si="25"/>
         <v>94</v>
       </c>
@@ -3411,7 +3411,7 @@
         <f t="shared" ref="D43:D44" si="26">1-B43/C43</f>
         <v>-3.7361111111110956E-2</v>
       </c>
-      <c r="F43" s="47">
+      <c r="F43" s="46">
         <f t="shared" si="25"/>
         <v>94</v>
       </c>
@@ -3441,7 +3441,7 @@
         <f t="shared" si="26"/>
         <v>-3.7361111111110956E-2</v>
       </c>
-      <c r="F44" s="47">
+      <c r="F44" s="46">
         <f t="shared" si="25"/>
         <v>94</v>
       </c>
@@ -3472,7 +3472,7 @@
         <f>1-B45/C45</f>
         <v>2.4892054646468154E-3</v>
       </c>
-      <c r="F45" s="47">
+      <c r="F45" s="46">
         <f>SUM(F34:F44)</f>
         <v>2647</v>
       </c>
@@ -3518,13 +3518,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9">
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
     </row>
     <row r="11" spans="5:9" ht="28.5">
       <c r="E11" s="2" t="s">
@@ -3677,13 +3677,13 @@
       </c>
     </row>
     <row r="23" spans="5:9">
-      <c r="E23" s="46" t="s">
+      <c r="E23" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" s="9" t="s">
@@ -3843,13 +3843,13 @@
       </c>
     </row>
     <row r="35" spans="5:15">
-      <c r="E35" s="46" t="s">
+      <c r="E35" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="46"/>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-      <c r="I35" s="46"/>
+      <c r="F35" s="47"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="47"/>
     </row>
     <row r="37" spans="5:15">
       <c r="E37" s="9" t="s">

--- a/documentation/3.Потверждение_максимума_Солярик.xlsx
+++ b/documentation/3.Потверждение_максимума_Солярик.xlsx
@@ -12,7 +12,7 @@
   </sheets>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1507,7 +1507,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Сводная таблица2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="3" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="I1:J13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -1848,7 +1848,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1859,7 +1859,7 @@
   <dimension ref="A1:X45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="116" zoomScaleNormal="116" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -3141,15 +3141,15 @@
         <v>2.6355797079119836E-2</v>
       </c>
       <c r="F34" s="46">
-        <f>ROUND(C34,0)</f>
-        <v>534</v>
+        <f>ROUND(C34,0)*3</f>
+        <v>1602</v>
       </c>
       <c r="G34" s="28">
-        <v>543</v>
+        <v>1607</v>
       </c>
       <c r="H34" s="31">
         <f t="shared" ref="H34:H45" si="23">1-F34/G34</f>
-        <v>1.6574585635359074E-2</v>
+        <v>3.1113876789048422E-3</v>
       </c>
       <c r="I34" t="s">
         <v>70</v>
@@ -3171,15 +3171,15 @@
         <v>4.2148866233450821E-2</v>
       </c>
       <c r="F35" s="46">
-        <f t="shared" ref="F35:F44" si="25">ROUND(C35,0)</f>
-        <v>441</v>
+        <f t="shared" ref="F35:F44" si="25">ROUND(C35,0)*3</f>
+        <v>1323</v>
       </c>
       <c r="G35" s="28">
-        <v>448</v>
+        <v>1316</v>
       </c>
       <c r="H35" s="31">
-        <f t="shared" si="23"/>
-        <v>1.5625E-2</v>
+        <f>1-F35/G35</f>
+        <v>-5.3191489361701372E-3</v>
       </c>
       <c r="I35" t="s">
         <v>71</v>
@@ -3202,14 +3202,14 @@
       </c>
       <c r="F36" s="46">
         <f t="shared" si="25"/>
-        <v>270</v>
+        <v>810</v>
       </c>
       <c r="G36" s="28">
-        <v>273</v>
+        <v>796</v>
       </c>
       <c r="H36" s="31">
         <f t="shared" si="23"/>
-        <v>1.098901098901095E-2</v>
+        <v>-1.7587939698492372E-2</v>
       </c>
       <c r="I36" t="s">
         <v>72</v>
@@ -3232,14 +3232,14 @@
       </c>
       <c r="F37" s="46">
         <f t="shared" si="25"/>
-        <v>270</v>
+        <v>810</v>
       </c>
       <c r="G37" s="28">
-        <v>273</v>
+        <v>795</v>
       </c>
       <c r="H37" s="31">
         <f t="shared" si="23"/>
-        <v>1.098901098901095E-2</v>
+        <v>-1.8867924528301883E-2</v>
       </c>
       <c r="I37" t="s">
         <v>73</v>
@@ -3262,14 +3262,14 @@
       </c>
       <c r="F38" s="46">
         <f t="shared" si="25"/>
-        <v>171</v>
+        <v>513</v>
       </c>
       <c r="G38" s="28">
-        <v>175</v>
+        <v>502</v>
       </c>
       <c r="H38" s="31">
         <f t="shared" si="23"/>
-        <v>2.2857142857142909E-2</v>
+        <v>-2.1912350597609542E-2</v>
       </c>
       <c r="I38" t="s">
         <v>74</v>
@@ -3292,14 +3292,14 @@
       </c>
       <c r="F39" s="46">
         <f t="shared" si="25"/>
-        <v>289</v>
+        <v>867</v>
       </c>
       <c r="G39" s="28">
-        <v>296</v>
+        <v>853</v>
       </c>
       <c r="H39" s="31">
         <f t="shared" si="23"/>
-        <v>2.3648648648648685E-2</v>
+        <v>-1.6412661195779554E-2</v>
       </c>
       <c r="I39" t="s">
         <v>75</v>
@@ -3322,14 +3322,14 @@
       </c>
       <c r="F40" s="46">
         <f t="shared" si="25"/>
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="G40" s="28">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="H40" s="31">
         <f t="shared" si="23"/>
-        <v>1.3698630136986356E-2</v>
+        <v>-4.6511627906977715E-3</v>
       </c>
       <c r="I40" t="s">
         <v>76</v>
@@ -3353,14 +3353,14 @@
       <c r="E41" s="1"/>
       <c r="F41" s="46">
         <f t="shared" si="25"/>
-        <v>318</v>
+        <v>954</v>
       </c>
       <c r="G41" s="28">
-        <v>320</v>
+        <v>934</v>
       </c>
       <c r="H41" s="31">
         <f t="shared" si="23"/>
-        <v>6.2499999999999778E-3</v>
+        <v>-2.1413276231263323E-2</v>
       </c>
       <c r="I41" t="s">
         <v>77</v>
@@ -3383,14 +3383,14 @@
       </c>
       <c r="F42" s="46">
         <f t="shared" si="25"/>
-        <v>94</v>
+        <v>282</v>
       </c>
       <c r="G42" s="28">
-        <v>96</v>
+        <v>281</v>
       </c>
       <c r="H42" s="31">
         <f t="shared" si="23"/>
-        <v>2.083333333333337E-2</v>
+        <v>-3.558718861210064E-3</v>
       </c>
       <c r="I42" t="s">
         <v>78</v>
@@ -3412,15 +3412,15 @@
         <v>-3.7361111111110956E-2</v>
       </c>
       <c r="F43" s="46">
-        <f t="shared" si="25"/>
-        <v>94</v>
+        <f>ROUND(C43,0)*3</f>
+        <v>282</v>
       </c>
       <c r="G43" s="28">
-        <v>93</v>
+        <v>278</v>
       </c>
       <c r="H43" s="31">
         <f t="shared" si="23"/>
-        <v>-1.0752688172043001E-2</v>
+        <v>-1.4388489208633004E-2</v>
       </c>
       <c r="I43" t="s">
         <v>79</v>
@@ -3443,14 +3443,14 @@
       </c>
       <c r="F44" s="46">
         <f t="shared" si="25"/>
-        <v>94</v>
+        <v>282</v>
       </c>
       <c r="G44" s="28">
-        <v>93</v>
+        <v>278</v>
       </c>
       <c r="H44" s="31">
         <f t="shared" si="23"/>
-        <v>-1.0752688172043001E-2</v>
+        <v>-1.4388489208633004E-2</v>
       </c>
       <c r="I44" t="s">
         <v>80</v>
@@ -3474,15 +3474,15 @@
       </c>
       <c r="F45" s="46">
         <f>SUM(F34:F44)</f>
-        <v>2647</v>
+        <v>7941</v>
       </c>
       <c r="G45" s="28">
         <f>SUM(G34:G44)</f>
-        <v>2683</v>
+        <v>7855</v>
       </c>
       <c r="H45" s="31">
         <f t="shared" si="23"/>
-        <v>1.3417815877748818E-2</v>
+        <v>-1.0948440483768307E-2</v>
       </c>
     </row>
   </sheetData>
